--- a/example/02_eqforce_results.xlsx
+++ b/example/02_eqforce_results.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EQForce Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bracing_Top-X" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chord_Bot-X" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chord_Top-X" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chord_Bot-Y" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chord_Top-Z" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="EQForce Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Bracing_Top-X" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Chord_Bot-X" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Chord_Bot-Y" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Chord_Bot-Z" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,31 +542,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chord_Top</t>
+          <t>Chord_Bot</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-353.2695</v>
+        <v>-339.8083</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>12.1912</v>
+        <v>35.668</v>
       </c>
       <c r="F4" t="n">
-        <v>4.1272</v>
+        <v>39.1137</v>
       </c>
       <c r="G4" t="n">
-        <v>36.0116</v>
+        <v>43.2987</v>
       </c>
       <c r="H4" t="n">
-        <v>353.2736</v>
+        <v>424.7604</v>
       </c>
     </row>
     <row r="5">
@@ -578,49 +577,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-382.2843</v>
+        <v>424.7604</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>35.668</v>
-      </c>
-      <c r="F5" t="n">
-        <v>39.1137</v>
-      </c>
-      <c r="G5" t="n">
-        <v>43.2987</v>
-      </c>
-      <c r="H5" t="n">
-        <v>424.7604</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Chord_Top</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Z</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>353.2736</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2145,7 +2114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2193,751 +2162,851 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>J113</t>
+          <t>J001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.645486</v>
+        <v>1.558962</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.341047</v>
+        <v>-0.03092895</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5611883</v>
+        <v>-0.04821705</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1913916</v>
+        <v>0.001491303</v>
       </c>
       <c r="F2" t="n">
-        <v>-16.26177</v>
+        <v>-0.4313398</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.26177</v>
+        <v>-0.4593625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>J114</t>
+          <t>J002</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.645486</v>
+        <v>0.9993874</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3374661</v>
+        <v>-0.2395548</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.555296</v>
+        <v>-0.2394081</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1873936</v>
+        <v>0.05735136</v>
       </c>
       <c r="F3" t="n">
-        <v>-16.09102</v>
+        <v>-2.141695</v>
       </c>
       <c r="G3" t="n">
-        <v>-16.09102</v>
+        <v>-2.280834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>J117</t>
+          <t>J003</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.645486</v>
+        <v>1.392748</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3411465</v>
+        <v>-0.5270531000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.561352</v>
+        <v>-0.7340523</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1915033</v>
+        <v>0.3868845</v>
       </c>
       <c r="F4" t="n">
-        <v>-16.26651</v>
+        <v>-6.56668</v>
       </c>
       <c r="G4" t="n">
-        <v>-16.26651</v>
+        <v>-6.993296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>J118</t>
+          <t>J004</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.645486</v>
+        <v>1.13057</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3375656</v>
+        <v>-0.7857614000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5554597</v>
+        <v>-0.8883581</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1875041</v>
+        <v>0.6980375</v>
       </c>
       <c r="F5" t="n">
-        <v>-16.09577</v>
+        <v>-7.947067</v>
       </c>
       <c r="G5" t="n">
-        <v>-16.09577</v>
+        <v>-8.463362</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>J119</t>
+          <t>J005</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.143095</v>
+        <v>1.392748</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.340158</v>
+        <v>-0.9878059</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3888328</v>
+        <v>-1.375765</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1322646</v>
+        <v>1.358989</v>
       </c>
       <c r="F6" t="n">
-        <v>-11.26736</v>
+        <v>-12.30731</v>
       </c>
       <c r="G6" t="n">
-        <v>-11.26736</v>
+        <v>-13.10687</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>J120</t>
+          <t>J006</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.143095</v>
+        <v>1.13057</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3367854</v>
+        <v>-1.167806</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3849776</v>
+        <v>-1.320287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1296548</v>
+        <v>1.541839</v>
       </c>
       <c r="F7" t="n">
-        <v>-11.15564</v>
+        <v>-11.81101</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.15564</v>
+        <v>-12.57833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>J121</t>
+          <t>J007</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.143095</v>
+        <v>1.392748</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3402496</v>
+        <v>-1.277146</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3889375</v>
+        <v>-1.778743</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1323358</v>
+        <v>2.271714</v>
       </c>
       <c r="F8" t="n">
-        <v>-11.27039</v>
+        <v>-15.91226</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.27039</v>
+        <v>-16.94603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J122</t>
+          <t>J008</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.143095</v>
+        <v>1.13057</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.336877</v>
+        <v>-1.366143</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3850823</v>
+        <v>-1.54452</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1297253</v>
+        <v>2.110035</v>
       </c>
       <c r="F9" t="n">
-        <v>-11.15868</v>
+        <v>-13.81696</v>
       </c>
       <c r="G9" t="n">
-        <v>-11.15868</v>
+        <v>-14.7146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J123</t>
+          <t>J009</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.122044</v>
+        <v>1.392748</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3391731</v>
+        <v>-1.376889</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3805672</v>
+        <v>-1.917661</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1290781</v>
+        <v>2.640407</v>
       </c>
       <c r="F10" t="n">
-        <v>-11.02784</v>
+        <v>-17.155</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.02784</v>
+        <v>-18.2695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>J124</t>
+          <t>J010</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.122044</v>
+        <v>1.13057</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3384125</v>
+        <v>-1.367369</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3797138</v>
+        <v>-1.545906</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1284999</v>
+        <v>2.113823</v>
       </c>
       <c r="F11" t="n">
-        <v>-11.00311</v>
+        <v>-13.82935</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.00311</v>
+        <v>-14.7278</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>J127</t>
+          <t>J011</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.122044</v>
+        <v>1.392748</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3392641</v>
+        <v>-1.279604</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3806693</v>
+        <v>-1.782166</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1291474</v>
+        <v>2.280467</v>
       </c>
       <c r="F12" t="n">
-        <v>-11.0308</v>
+        <v>-15.94289</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.0308</v>
+        <v>-16.97865</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>J128</t>
+          <t>J012</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.122044</v>
+        <v>1.13057</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3385036</v>
+        <v>-1.171502</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3798159</v>
+        <v>-1.324465</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1285691</v>
+        <v>1.551613</v>
       </c>
       <c r="F13" t="n">
-        <v>-11.00607</v>
+        <v>-11.84839</v>
       </c>
       <c r="G13" t="n">
-        <v>-11.00607</v>
+        <v>-12.61814</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>J129</t>
+          <t>J013</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.143095</v>
+        <v>1.392748</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3384836</v>
+        <v>-0.9927586</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3869188</v>
+        <v>-1.382663</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1309657</v>
+        <v>1.372651</v>
       </c>
       <c r="F14" t="n">
-        <v>-11.2119</v>
+        <v>-12.36902</v>
       </c>
       <c r="G14" t="n">
-        <v>-11.2119</v>
+        <v>-13.17259</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>J130</t>
+          <t>J014</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.143095</v>
+        <v>1.13057</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3391821</v>
+        <v>-0.7919843</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3877173</v>
+        <v>-0.8953935</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1315068</v>
+        <v>0.7091376</v>
       </c>
       <c r="F15" t="n">
-        <v>-11.23503</v>
+        <v>-8.010005</v>
       </c>
       <c r="G15" t="n">
-        <v>-11.23503</v>
+        <v>-8.530388</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>J131</t>
+          <t>J015</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.143095</v>
+        <v>1.392748</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3385667</v>
+        <v>-0.5345722000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3870138</v>
+        <v>-0.7445247</v>
       </c>
       <c r="E16" t="n">
-        <v>0.13103</v>
+        <v>0.3980022</v>
       </c>
       <c r="F16" t="n">
-        <v>-11.21465</v>
+        <v>-6.660363</v>
       </c>
       <c r="G16" t="n">
-        <v>-11.21465</v>
+        <v>-7.093065</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>J132</t>
+          <t>J016</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.143095</v>
+        <v>0.9993874</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3392651</v>
+        <v>-0.2484018</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3878122</v>
+        <v>-0.2482497</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1315712</v>
+        <v>0.06166568</v>
       </c>
       <c r="F17" t="n">
-        <v>-11.23778</v>
+        <v>-2.22079</v>
       </c>
       <c r="G17" t="n">
-        <v>-11.23778</v>
+        <v>-2.365068</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>J133</t>
+          <t>J017</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.121005</v>
+        <v>1.558962</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3378228</v>
+        <v>-0.04076035</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3787009</v>
+        <v>-0.06354382</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1279338</v>
+        <v>0.002590069</v>
       </c>
       <c r="F18" t="n">
-        <v>-10.97376</v>
+        <v>-0.5684499</v>
       </c>
       <c r="G18" t="n">
-        <v>-10.97376</v>
+        <v>-0.6053802</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>J134</t>
+          <t>J096</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.121005</v>
+        <v>1.558962</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3387642</v>
+        <v>-0.03093202</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3797562</v>
+        <v>-0.04822184</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1286478</v>
+        <v>0.001491599</v>
       </c>
       <c r="F19" t="n">
-        <v>-11.00434</v>
+        <v>-0.4313826</v>
       </c>
       <c r="G19" t="n">
-        <v>-11.00434</v>
+        <v>-0.4594081</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>J137</t>
+          <t>J097</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.121005</v>
+        <v>0.9993874</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3379037</v>
+        <v>-0.2395632</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3787916</v>
+        <v>-0.2394164</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1279951</v>
+        <v>0.05735536</v>
       </c>
       <c r="F20" t="n">
-        <v>-10.97639</v>
+        <v>-2.14177</v>
       </c>
       <c r="G20" t="n">
-        <v>-10.97639</v>
+        <v>-2.280914</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>J138</t>
+          <t>J098</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.121005</v>
+        <v>1.392748</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3388451</v>
+        <v>-0.5270625</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3798469</v>
+        <v>-0.7340655</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1287092</v>
+        <v>0.3868984</v>
       </c>
       <c r="F21" t="n">
-        <v>-11.00697</v>
+        <v>-6.566797</v>
       </c>
       <c r="G21" t="n">
-        <v>-11.00697</v>
+        <v>-6.993421</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>J139</t>
+          <t>J099</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.140717</v>
+        <v>1.13057</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3376186</v>
+        <v>-0.7857712</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3851274</v>
+        <v>-0.8883692</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1300262</v>
+        <v>0.6980549</v>
       </c>
       <c r="F22" t="n">
-        <v>-11.15999</v>
+        <v>-7.947166</v>
       </c>
       <c r="G22" t="n">
-        <v>-11.15999</v>
+        <v>-8.463468000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>J140</t>
+          <t>J100</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.140717</v>
+        <v>1.392748</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3384801</v>
+        <v>-0.9878153</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3861101</v>
+        <v>-1.375778</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1306906</v>
+        <v>1.359015</v>
       </c>
       <c r="F23" t="n">
-        <v>-11.18846</v>
+        <v>-12.30743</v>
       </c>
       <c r="G23" t="n">
-        <v>-11.18846</v>
+        <v>-13.107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>J141</t>
+          <t>J101</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.140717</v>
+        <v>1.13057</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.3376926</v>
+        <v>-1.167816</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3852119</v>
+        <v>-1.320298</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1300832</v>
+        <v>1.541865</v>
       </c>
       <c r="F24" t="n">
-        <v>-11.16243</v>
+        <v>-11.81111</v>
       </c>
       <c r="G24" t="n">
-        <v>-11.16243</v>
+        <v>-12.57844</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>J142</t>
+          <t>J102</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.140717</v>
+        <v>1.392748</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3385541</v>
+        <v>-1.277155</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3861946</v>
+        <v>-1.778756</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1307478</v>
+        <v>2.271747</v>
       </c>
       <c r="F25" t="n">
-        <v>-11.19091</v>
+        <v>-15.91238</v>
       </c>
       <c r="G25" t="n">
-        <v>-11.19091</v>
+        <v>-16.94616</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>J143</t>
+          <t>J103</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.118626</v>
+        <v>1.13057</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.337425</v>
+        <v>-1.366153</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3774523</v>
+        <v>-1.544531</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1273619</v>
+        <v>2.110066</v>
       </c>
       <c r="F26" t="n">
-        <v>-10.93758</v>
+        <v>-13.81706</v>
       </c>
       <c r="G26" t="n">
-        <v>-10.93758</v>
+        <v>-14.7147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>J144</t>
+          <t>J104</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.137654</v>
+        <v>1.392748</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3377972</v>
+        <v>-1.376899</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3842962</v>
+        <v>-1.917674</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1298142</v>
+        <v>2.640443</v>
       </c>
       <c r="F27" t="n">
-        <v>-11.1359</v>
+        <v>-17.15511</v>
       </c>
       <c r="G27" t="n">
-        <v>-11.1359</v>
+        <v>-18.26962</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>J145</t>
+          <t>J105</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.118626</v>
+        <v>1.13057</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.338084</v>
+        <v>-1.367378</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3781893</v>
+        <v>-1.545917</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1278598</v>
+        <v>2.113853</v>
       </c>
       <c r="F28" t="n">
-        <v>-10.95894</v>
+        <v>-13.82945</v>
       </c>
       <c r="G28" t="n">
-        <v>-10.95894</v>
+        <v>-14.7279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J148</t>
+          <t>J106</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.118626</v>
+        <v>1.392748</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.3374991</v>
+        <v>-1.279613</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.3775351</v>
+        <v>-1.782179</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1274177</v>
+        <v>2.2805</v>
       </c>
       <c r="F29" t="n">
-        <v>-10.93998</v>
+        <v>-15.94301</v>
       </c>
       <c r="G29" t="n">
-        <v>-10.93998</v>
+        <v>-16.97877</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>J149</t>
+          <t>J107</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.137654</v>
+        <v>1.13057</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3378678</v>
+        <v>-1.171512</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.3843765</v>
+        <v>-1.324476</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1298685</v>
+        <v>1.551639</v>
       </c>
       <c r="F30" t="n">
-        <v>-11.13823</v>
+        <v>-11.84849</v>
       </c>
       <c r="G30" t="n">
-        <v>-11.13823</v>
+        <v>-12.61824</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>J150</t>
+          <t>J108</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.118626</v>
+        <v>1.392748</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.338158</v>
+        <v>-0.992768</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.3782721</v>
+        <v>-1.382676</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1279157</v>
+        <v>1.372677</v>
       </c>
       <c r="F31" t="n">
-        <v>-10.96134</v>
+        <v>-12.36913</v>
       </c>
       <c r="G31" t="n">
-        <v>-10.96134</v>
+        <v>-13.17272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>J109</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.7919941</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.8954046</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7091551</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-8.010104</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-8.530493999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>J110</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.5345817</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.7445378</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3980163</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-6.660481</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-7.09319</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>J111</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9993875</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.2484102</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.248258</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.06166983</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.220865</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-2.365147</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>J112</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.558962</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.04076342</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.06354861000000001</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.002590458</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.5684927</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.6054258</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +3020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2972,912 +3041,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Displacement</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>wu</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>wuu</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Force_Origin</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Force</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>J001</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.558962</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.03092895</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.04821705</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.001491303</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.4313398</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.5167828</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>J002</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9993874</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.2395548</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.2394081</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.05735136</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-2.141695</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-2.565938</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>J003</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.5270531000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.7340523</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3868845</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-6.56668</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-7.867457</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>J004</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.7857614000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.8883581</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6980375</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-7.947067</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-9.521281999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>J005</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.9878059</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-1.375765</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.358989</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-12.30731</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-14.74523</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>J006</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-1.167806</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-1.320287</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.541839</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-11.81101</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-14.15062</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>J007</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-1.277146</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-1.778743</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.271714</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-15.91226</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-19.06429</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>J008</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-1.366143</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-1.54452</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.110035</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-13.81696</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-16.55392</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>J009</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-1.376889</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-1.917661</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.640407</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-17.155</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-20.55319</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>J010</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-1.367369</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-1.545906</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.113823</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-13.82935</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-16.56877</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>J011</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-1.279604</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-1.782166</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.280467</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-15.94289</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-19.10098</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>J012</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.171502</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-1.324465</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.551613</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-11.84839</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-14.19541</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>J013</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.9927586</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-1.382663</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.372651</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-12.36902</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-14.81916</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>J014</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.7919843</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.8953935</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.7091376</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-8.010005</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-9.596686999999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>J015</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.5345722000000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.7445247</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.3980022</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-6.660363</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-7.979698</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>J016</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9993874</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.2484018</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.2482497</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.06166568</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-2.22079</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-2.660701</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>J017</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1.558962</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.04076035</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.06354382</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.002590069</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.5684499</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.6810527</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>J096</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1.558962</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.03093202</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.04822184</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.001491599</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.4313826</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.5168341</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>J097</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9993874</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.2395632</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.2394164</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.05735536</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-2.14177</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-2.566028</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>J098</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.5270625</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-0.7340655</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.3868984</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-6.566797</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-7.867598</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>J099</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.7857712</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-0.8883692</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.6980549</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-7.947166</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-9.521400999999999</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>J100</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.9878153</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-1.375778</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.359015</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-12.30743</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-14.74537</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>J101</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-1.167816</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-1.320298</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.541865</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-11.81111</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-14.15074</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>J102</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-1.277155</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-1.778756</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2.271747</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-15.91238</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-19.06443</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>J103</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-1.366153</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-1.544531</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2.110066</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-13.81706</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-16.55404</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>J104</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-1.376899</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-1.917674</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2.640443</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-17.15511</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-20.55333</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>J105</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-1.367378</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-1.545917</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.113853</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-13.82945</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-16.56889</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>J106</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-1.279613</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-1.782179</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.2805</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-15.94301</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-19.10112</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>J107</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-1.171512</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-1.324476</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.551639</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-11.84849</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-14.19552</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>J108</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.992768</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-1.382676</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.372677</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-12.36913</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-14.81931</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>J109</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.7919941</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-0.8954046</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.7091551</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-8.010104</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-9.596805</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>J110</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.5345817</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.7445378</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.3980163</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-6.660481</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-7.979839</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>J111</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.9993875</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.2484102</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.248258</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.06166983</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-2.220865</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-2.660791</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>J112</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1.558962</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-0.04076342</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-0.06354861000000001</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.002590458</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-0.5684927</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-0.681104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Node</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mass</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Force</t>
         </is>
       </c>
@@ -3894,391 +3057,443 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>J113</t>
+          <t>J001</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.645486</v>
+        <v>1.558962</v>
       </c>
       <c r="C3" t="n">
-        <v>16.14222</v>
+        <v>15.29341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>J114</t>
+          <t>J002</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.645486</v>
+        <v>0.9993874</v>
       </c>
       <c r="C4" t="n">
-        <v>16.14222</v>
+        <v>9.803991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>J117</t>
+          <t>J003</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.645486</v>
+        <v>1.392748</v>
       </c>
       <c r="C5" t="n">
-        <v>16.14222</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>J118</t>
+          <t>J004</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.645486</v>
+        <v>1.13057</v>
       </c>
       <c r="C6" t="n">
-        <v>16.14222</v>
+        <v>11.09089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>J119</t>
+          <t>J005</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.143095</v>
+        <v>1.392748</v>
       </c>
       <c r="C7" t="n">
-        <v>11.21376</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>J120</t>
+          <t>J006</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.143095</v>
+        <v>1.13057</v>
       </c>
       <c r="C8" t="n">
-        <v>11.21376</v>
+        <v>11.09089</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J121</t>
+          <t>J007</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.143095</v>
+        <v>1.392748</v>
       </c>
       <c r="C9" t="n">
-        <v>11.21376</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J122</t>
+          <t>J008</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.143095</v>
+        <v>1.13057</v>
       </c>
       <c r="C10" t="n">
-        <v>11.21376</v>
+        <v>11.09089</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>J123</t>
+          <t>J009</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.122044</v>
+        <v>1.392748</v>
       </c>
       <c r="C11" t="n">
-        <v>11.00725</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>J124</t>
+          <t>J010</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.122044</v>
+        <v>1.13057</v>
       </c>
       <c r="C12" t="n">
-        <v>11.00725</v>
+        <v>11.09089</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>J127</t>
+          <t>J011</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.122044</v>
+        <v>1.392748</v>
       </c>
       <c r="C13" t="n">
-        <v>11.00725</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>J128</t>
+          <t>J012</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.122044</v>
+        <v>1.13057</v>
       </c>
       <c r="C14" t="n">
-        <v>11.00725</v>
+        <v>11.09089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>J129</t>
+          <t>J013</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.143095</v>
+        <v>1.392748</v>
       </c>
       <c r="C15" t="n">
-        <v>11.21376</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>J130</t>
+          <t>J014</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.143095</v>
+        <v>1.13057</v>
       </c>
       <c r="C16" t="n">
-        <v>11.21376</v>
+        <v>11.09089</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>J131</t>
+          <t>J015</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.143095</v>
+        <v>1.392748</v>
       </c>
       <c r="C17" t="n">
-        <v>11.21376</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>J132</t>
+          <t>J016</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.143095</v>
+        <v>0.9993874</v>
       </c>
       <c r="C18" t="n">
-        <v>11.21376</v>
+        <v>9.803991</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>J133</t>
+          <t>J017</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.121005</v>
+        <v>1.558962</v>
       </c>
       <c r="C19" t="n">
-        <v>10.99706</v>
+        <v>15.29341</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>J134</t>
+          <t>J096</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.121005</v>
+        <v>1.558962</v>
       </c>
       <c r="C20" t="n">
-        <v>10.99706</v>
+        <v>15.29341</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>J137</t>
+          <t>J097</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.121005</v>
+        <v>0.9993874</v>
       </c>
       <c r="C21" t="n">
-        <v>10.99706</v>
+        <v>9.803991</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>J138</t>
+          <t>J098</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.121005</v>
+        <v>1.392748</v>
       </c>
       <c r="C22" t="n">
-        <v>10.99706</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>J139</t>
+          <t>J099</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.140717</v>
+        <v>1.13057</v>
       </c>
       <c r="C23" t="n">
-        <v>11.19044</v>
+        <v>11.09089</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>J140</t>
+          <t>J100</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.140717</v>
+        <v>1.392748</v>
       </c>
       <c r="C24" t="n">
-        <v>11.19044</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>J141</t>
+          <t>J101</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.140717</v>
+        <v>1.13057</v>
       </c>
       <c r="C25" t="n">
-        <v>11.19044</v>
+        <v>11.09089</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>J142</t>
+          <t>J102</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.140717</v>
+        <v>1.392748</v>
       </c>
       <c r="C26" t="n">
-        <v>11.19044</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>J143</t>
+          <t>J103</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.118626</v>
+        <v>1.13057</v>
       </c>
       <c r="C27" t="n">
-        <v>10.97372</v>
+        <v>11.09089</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>J144</t>
+          <t>J104</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.137654</v>
+        <v>1.392748</v>
       </c>
       <c r="C28" t="n">
-        <v>11.16038</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J145</t>
+          <t>J105</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.118626</v>
+        <v>1.13057</v>
       </c>
       <c r="C29" t="n">
-        <v>10.97372</v>
+        <v>11.09089</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>J148</t>
+          <t>J106</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.118626</v>
+        <v>1.392748</v>
       </c>
       <c r="C30" t="n">
-        <v>10.97372</v>
+        <v>13.66286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>J149</t>
+          <t>J107</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.137654</v>
+        <v>1.13057</v>
       </c>
       <c r="C31" t="n">
-        <v>11.16038</v>
+        <v>11.09089</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>J150</t>
+          <t>J108</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.118626</v>
+        <v>1.392748</v>
       </c>
       <c r="C32" t="n">
-        <v>10.97372</v>
+        <v>13.66286</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>J109</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11.09089</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>J110</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C34" t="n">
+        <v>13.66286</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>J111</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9993875</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.803991</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>J112</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.558962</v>
+      </c>
+      <c r="C36" t="n">
+        <v>15.29341</v>
       </c>
     </row>
   </sheetData>
